--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4116162.140794851</v>
+        <v>4113590.186276945</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7245929.464102754</v>
+        <v>7245929.464102755</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>47.33350719796951</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>330.6679898432817</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.94981712654037</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>266.6210949690529</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>367.121554986546</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>14.03542580785488</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.26682930112241</v>
       </c>
       <c r="S7" t="n">
-        <v>179.1565794787434</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>164.5779393906808</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>48.44043965597376</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>43.60620160013919</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7177065691258</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695589</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>133.3722917337054</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>186.0435781263494</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>220.864501724972</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.9726497471643</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>60.42721558712923</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.45703212904686</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>83.06560892428168</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>107.0531836110628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957382</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33.48499328953009</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,7 +3193,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986223</v>
       </c>
       <c r="V34" t="n">
-        <v>122.4770547252865</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.98177228777928</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>138.5343125815924</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>41.01175877060099</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>13.37642554686373</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.5936784239528</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>760.2723052017247</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="C2" t="n">
-        <v>760.2723052017247</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2594.308778116423</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2594.308778116423</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2594.308778116423</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2263.245890772852</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1910.477235502738</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="X2" t="n">
-        <v>1537.011477241658</v>
+        <v>1328.4755035807</v>
       </c>
       <c r="Y2" t="n">
-        <v>1146.872145265846</v>
+        <v>1328.4755035807</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>471.4038777286581</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1533.27522618254</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353781</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353781</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224073</v>
@@ -4577,40 +4577,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2627.943203763003</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2296.880316419432</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2296.880316419432</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.414558158352</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1533.27522618254</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4641,16 +4641,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799423</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.712065060056</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.712065060056</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="S7" t="n">
-        <v>517.7458231623355</v>
+        <v>678.2405203114477</v>
       </c>
       <c r="T7" t="n">
-        <v>517.7458231623355</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>517.7458231623355</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>517.7458231623355</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>517.7458231623355</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332391</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304454</v>
+        <v>2530.908748199353</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942545</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942545</v>
+        <v>2277.146962837444</v>
       </c>
       <c r="W8" t="n">
-        <v>1999.645413916309</v>
+        <v>1924.37830756733</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>1550.91254930625</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1550.91254930625</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.128984206434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3838260558018</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5912469122717</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,55 +5027,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,25 +5112,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191926</v>
+        <v>589.1422692637303</v>
       </c>
       <c r="M12" t="n">
-        <v>1025.119922845745</v>
+        <v>949.9304447718139</v>
       </c>
       <c r="N12" t="n">
-        <v>1652.717886400352</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>695.50206557031</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>526.5658826424032</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>376.4492432300674</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476743</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>228.5361496476743</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>228.5361496476743</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1789.538274322277</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,52 +5264,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913849</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.167399417936</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417936</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>559.0424953278207</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>961.4835393015906</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>740.6909601580604</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>526.5658826424041</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>378.6527890600109</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>378.6527890600109</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2412.158000621627</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2412.158000621627</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.158000621627</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6127,13 +6127,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6206,22 +6206,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,40 +6230,40 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591808</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>808.8888553856862</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>990.5373202159259</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>842.6091804069456</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.207143961552</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2022.116874200839</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2445.740023695907</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811333</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532264</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,10 +6716,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
         <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1851.318825887154</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192548</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000582</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2417.688566117858</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2234.833731772762</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2015.232266795703</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1726.157040139901</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1471.472551934014</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1182.055381897053</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1182.055381897053</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7166,28 +7166,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.5579673960132</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.350546539543</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>783.5579673960132</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898186995</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>789.7592298206043</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>620.8230468926974</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>470.7064074803617</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>322.7933138979686</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>971.4076946508441</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7649,16 +7649,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>849.3843576263199</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>680.448174698413</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1031.03282245656</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142017</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>6.922421112518464</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>100.1408962628947</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.31997266427211</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>44.73700564187288</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>105.0969227051396</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.91821458107483</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>63.36835372228749</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>60.19363748756507</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.3469868924072</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893819</v>
       </c>
       <c r="V34" t="n">
-        <v>129.6605885985415</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.39347442234238</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>87.17534280744474</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>99.2829540756229</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>273.1465727897273</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>45.99097492814198</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609629.5575225909</v>
+        <v>609629.557522591</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900065</v>
       </c>
       <c r="M2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577094</v>
+        <v>944372.7777577083</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080588</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670409</v>
+        <v>5067.592601670554</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.59260167044</v>
+        <v>5067.592601670503</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670479</v>
+        <v>5067.592601670465</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26448,13 +26448,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="N4" t="n">
-        <v>5067.592601670438</v>
-      </c>
       <c r="O4" t="n">
-        <v>5067.592601670458</v>
+        <v>5067.592601670502</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52849.69334140237</v>
+        <v>-52849.69334140225</v>
       </c>
       <c r="C6" t="n">
-        <v>537118.1858731419</v>
+        <v>537118.1858731421</v>
       </c>
       <c r="D6" t="n">
-        <v>537118.185873142</v>
+        <v>537118.1858731423</v>
       </c>
       <c r="E6" t="n">
-        <v>-243416.3004932808</v>
+        <v>-243451.0384187156</v>
       </c>
       <c r="F6" t="n">
-        <v>700956.4772644292</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="G6" t="n">
-        <v>700956.4772644287</v>
+        <v>700921.7393389926</v>
       </c>
       <c r="H6" t="n">
-        <v>700956.4772644285</v>
+        <v>700921.739338993</v>
       </c>
       <c r="I6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.739338993</v>
       </c>
       <c r="J6" t="n">
-        <v>524533.2580718356</v>
+        <v>524498.5201464001</v>
       </c>
       <c r="K6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.7393389931</v>
       </c>
       <c r="L6" t="n">
-        <v>700956.477264429</v>
+        <v>700921.7393389929</v>
       </c>
       <c r="M6" t="n">
-        <v>576747.9665563697</v>
+        <v>576713.2286309345</v>
       </c>
       <c r="N6" t="n">
-        <v>700956.477264429</v>
+        <v>700921.7393389933</v>
       </c>
       <c r="O6" t="n">
-        <v>700956.4772644287</v>
+        <v>700921.7393389927</v>
       </c>
       <c r="P6" t="n">
-        <v>700956.4772644289</v>
+        <v>700921.739338993</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.318586784683342e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245877</v>
+        <v>990.2318361245866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450933</v>
+        <v>498.4210153450923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>127.082205611002</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>18.57297887413131</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>71.66565589167199</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>19.90190336753813</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>14.80881508571576</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>237.1887417004344</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3983626790354</v>
       </c>
       <c r="S7" t="n">
-        <v>32.98895947127554</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>51.87038096697697</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>300.8005290614392</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>168.5393373498797</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9919488199113</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.449507180950604e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.09262390227752e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.28537247091299e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31276,16 +31276,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31297,25 +31297,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,31 +31355,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,22 +31841,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>506.566534435234</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>624.1318526922776</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007828</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,25 +32546,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O21" t="n">
-        <v>465.217062384076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,7 +32798,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>302.5540177178169</v>
+        <v>414.9172504145583</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33272,7 +33272,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,7 +33281,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>565.6398038246476</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q36" t="n">
         <v>375.5996128485291</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34211,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>629.0082733147299</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,19 +34445,19 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,13 +35094,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193529</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>364.4325005132157</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>481.5356082478332</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462702</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563383</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O21" t="n">
-        <v>322.6208179396315</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,7 +36446,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>171.2123056344836</v>
+        <v>283.575538331225</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,7 +36929,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>434.2980917413143</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625076</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>490.4538935348556</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
